--- a/docs/tp/Clients/Clients - Convenzioni.xlsx
+++ b/docs/tp/Clients/Clients - Convenzioni.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\matrix-web-fe-tests\docs\tp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TA\matrix-web-fe-tests\docs\tp\Clients\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1520CB1D-9687-44E1-99FD-A7DC31490747}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D690F5-4E1B-4C32-8EBA-37E219F786EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15900" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
+    <workbookView xWindow="-19320" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{BE46A6EB-3E52-4087-BE1D-BF4A8643FA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>Design</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Allianz Projects\Digital Interaction\Allianz Matrix Web\Clients</t>
-  </si>
-  <si>
-    <t>Oboe Andrea (Leased Employed)</t>
   </si>
   <si>
     <t xml:space="preserve">MW &gt; come delegato accedere all'agenzia 01-710000 e cercare un cliente PG </t>
@@ -579,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AEFEBA-728D-4FDD-9B3D-F6BE0E3793BC}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="A2:J3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,16 +628,16 @@
     </row>
     <row r="2" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>0</v>
@@ -649,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>12</v>
@@ -663,16 +660,16 @@
     </row>
     <row r="3" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>0</v>
@@ -681,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>12</v>
@@ -695,16 +692,16 @@
     </row>
     <row r="4" spans="1:10" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>0</v>
@@ -713,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>12</v>
@@ -727,16 +724,16 @@
     </row>
     <row r="5" spans="1:10" ht="126" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>0</v>
@@ -745,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>12</v>
@@ -759,16 +756,16 @@
     </row>
     <row r="6" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>0</v>
@@ -777,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>12</v>
